--- a/pracazPagesami.xlsx
+++ b/pracazPagesami.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01159502\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01159502\Desktop\TripPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC27F85-C943-4D82-8627-E84253E757DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688DB5D-6C7B-4256-8EDD-0CBEE688C7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="-24" windowWidth="23256" windowHeight="14016" xr2:uid="{BC9C2892-AF9A-439D-9218-081E5ED93CED}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" xr2:uid="{BC9C2892-AF9A-439D-9218-081E5ED93CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Nazwa widoku</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Różne rodzaje ekranów</t>
   </si>
   <si>
-    <t>1. wyróżnienie wyjazdów które organizujemy</t>
-  </si>
-  <si>
-    <t>2. Informacja o ilości nieodczytancyh powiadomień</t>
-  </si>
-  <si>
     <t>TourPage(strona główna wycieczki)</t>
   </si>
   <si>
@@ -81,6 +75,27 @@
   </si>
   <si>
     <t>miedzy oknami głównymi (okna odchodzące mogą użytkować ten sam obiekt tour) aplikacji przekazywac tourId a nie obiekt TourDTO, każde okno samo sobie pobierze potrzebne dane oraz każdorazowo wycieczkę w celu obcowania z najnowszymi danymi</t>
+  </si>
+  <si>
+    <t>ParticipantList(strona z listą uczestników)</t>
+  </si>
+  <si>
+    <t>Zdjecia uzytkowników zamiast numerków kolejności</t>
+  </si>
+  <si>
+    <t>CreateTour</t>
+  </si>
+  <si>
+    <t>dodanie mapy aby wskazać docelową lokalizację do prezentowania pogody</t>
+  </si>
+  <si>
+    <t>OnOriendation</t>
+  </si>
+  <si>
+    <t>wyróżnienie wyjazdów które organizujemy</t>
+  </si>
+  <si>
+    <t>informacja o ilości nieodczytancyh powiadomień</t>
   </si>
 </sst>
 </file>
@@ -331,12 +346,6 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,25 +379,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -705,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC4D277-BE0C-4DAE-9B6E-972D2C9E2B4C}">
-  <dimension ref="C3:AE23"/>
+  <dimension ref="C3:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -716,558 +731,624 @@
     <col min="3" max="3" width="26.15234375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.765625" customWidth="1"/>
     <col min="5" max="5" width="31.921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.07421875" customWidth="1"/>
-    <col min="7" max="7" width="10.15234375" customWidth="1"/>
-    <col min="8" max="8" width="12.69140625" customWidth="1"/>
+    <col min="6" max="6" width="35.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.84375" customWidth="1"/>
+    <col min="8" max="8" width="31.23046875" customWidth="1"/>
+    <col min="9" max="9" width="25.84375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="10.765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="3:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" spans="3:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="8"/>
+    </row>
+    <row r="6" spans="3:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="7" spans="3:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="11"/>
+    </row>
+    <row r="8" spans="3:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="11"/>
+    </row>
+    <row r="9" spans="3:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="11"/>
+    </row>
+    <row r="10" spans="3:31" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="17"/>
+    </row>
+    <row r="11" spans="3:31" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="5"/>
+      <c r="D11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="4"/>
-    </row>
-    <row r="5" spans="3:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="10"/>
-    </row>
-    <row r="6" spans="3:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="13"/>
-    </row>
-    <row r="7" spans="3:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="13"/>
-    </row>
-    <row r="8" spans="3:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="13"/>
-    </row>
-    <row r="9" spans="3:31" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="17"/>
+    </row>
+    <row r="12" spans="3:31" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="5"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="17"/>
+    </row>
+    <row r="13" spans="3:31" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="5"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="17"/>
+    </row>
+    <row r="14" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="5"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="17"/>
+    </row>
+    <row r="15" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="5"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="17"/>
+    </row>
+    <row r="16" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="5"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="17"/>
+    </row>
+    <row r="17" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="5"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="17"/>
+    </row>
+    <row r="18" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="5"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="17"/>
+    </row>
+    <row r="19" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="5"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="17"/>
+    </row>
+    <row r="20" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="5"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="20"/>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="15"/>
-    </row>
-    <row r="10" spans="3:31" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="7"/>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="14" t="s">
+    </row>
+    <row r="24" spans="3:31" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="C24" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="15"/>
-    </row>
-    <row r="11" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="7"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="15"/>
-    </row>
-    <row r="12" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="7"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="15"/>
-    </row>
-    <row r="13" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="7"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="15"/>
-    </row>
-    <row r="14" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="7"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="15"/>
-    </row>
-    <row r="15" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="7"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="15"/>
-    </row>
-    <row r="16" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="15"/>
-    </row>
-    <row r="17" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="7"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="15"/>
-    </row>
-    <row r="18" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="7"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="15"/>
-    </row>
-    <row r="19" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="7"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="18"/>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="3:31" ht="145.75" x14ac:dyDescent="0.4">
-      <c r="C23" s="20" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/pracazPagesami.xlsx
+++ b/pracazPagesami.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01159502\Desktop\TripPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688DB5D-6C7B-4256-8EDD-0CBEE688C7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C906B0D3-1599-4E99-A0EB-B7EDBA9F9E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" xr2:uid="{BC9C2892-AF9A-439D-9218-081E5ED93CED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Nazwa widoku</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>informacja o ilości nieodczytancyh powiadomień</t>
+  </si>
+  <si>
+    <t>zapytania typu get po prostu zwracamy albo obiekt albo null</t>
+  </si>
+  <si>
+    <t>zapytania typu delete zwracamy repositoryResponse z odpowiednią treścią</t>
   </si>
 </sst>
 </file>
@@ -720,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC4D277-BE0C-4DAE-9B6E-972D2C9E2B4C}">
-  <dimension ref="C3:AE24"/>
+  <dimension ref="C3:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1351,6 +1357,16 @@
         <v>12</v>
       </c>
     </row>
+    <row r="25" spans="3:31" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" ht="52.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
